--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.507882</v>
+        <v>6.670167666666667</v>
       </c>
       <c r="H2">
-        <v>16.523646</v>
+        <v>20.010503</v>
       </c>
       <c r="I2">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="J2">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.048438999999999</v>
+        <v>3.867218333333334</v>
       </c>
       <c r="N2">
-        <v>12.145317</v>
+        <v>11.601655</v>
       </c>
       <c r="O2">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="P2">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="Q2">
-        <v>22.29832429619799</v>
+        <v>25.79499468694056</v>
       </c>
       <c r="R2">
-        <v>200.684918665782</v>
+        <v>232.154952182465</v>
       </c>
       <c r="S2">
-        <v>0.005993571095952575</v>
+        <v>0.006625917452287762</v>
       </c>
       <c r="T2">
-        <v>0.005993571095952577</v>
+        <v>0.006625917452287762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.507882</v>
+        <v>6.670167666666667</v>
       </c>
       <c r="H3">
-        <v>16.523646</v>
+        <v>20.010503</v>
       </c>
       <c r="I3">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="J3">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>11.27122833333333</v>
       </c>
       <c r="N3">
-        <v>33.81368499999999</v>
+        <v>33.813685</v>
       </c>
       <c r="O3">
-        <v>0.4742054659960561</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="P3">
-        <v>0.4742054659960562</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="Q3">
-        <v>62.08059565505665</v>
+        <v>75.18098279261723</v>
       </c>
       <c r="R3">
-        <v>558.7253608955099</v>
+        <v>676.6288451335549</v>
       </c>
       <c r="S3">
-        <v>0.01668665585786235</v>
+        <v>0.0193116142108743</v>
       </c>
       <c r="T3">
-        <v>0.01668665585786235</v>
+        <v>0.0193116142108743</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.507882</v>
+        <v>6.670167666666667</v>
       </c>
       <c r="H4">
-        <v>16.523646</v>
+        <v>20.010503</v>
       </c>
       <c r="I4">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="J4">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.219226333333334</v>
+        <v>5.654344666666667</v>
       </c>
       <c r="N4">
-        <v>9.657679000000002</v>
+        <v>16.963034</v>
       </c>
       <c r="O4">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="P4">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="Q4">
-        <v>17.73111877529267</v>
+        <v>37.71542697178911</v>
       </c>
       <c r="R4">
-        <v>159.580068977634</v>
+        <v>339.438842746102</v>
       </c>
       <c r="S4">
-        <v>0.004765951000569865</v>
+        <v>0.00968789909925357</v>
       </c>
       <c r="T4">
-        <v>0.004765951000569865</v>
+        <v>0.00968789909925357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.507882</v>
+        <v>6.670167666666667</v>
       </c>
       <c r="H5">
-        <v>16.523646</v>
+        <v>20.010503</v>
       </c>
       <c r="I5">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="J5">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9942166666666665</v>
+        <v>0.819389</v>
       </c>
       <c r="N5">
-        <v>2.98265</v>
+        <v>2.458167</v>
       </c>
       <c r="O5">
-        <v>0.04182889067409059</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="P5">
-        <v>0.0418288906740906</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="Q5">
-        <v>5.476028082433333</v>
+        <v>5.465462014222334</v>
       </c>
       <c r="R5">
-        <v>49.28425274189999</v>
+        <v>49.189158128001</v>
       </c>
       <c r="S5">
-        <v>0.001471902695445739</v>
+        <v>0.001403904152117767</v>
       </c>
       <c r="T5">
-        <v>0.001471902695445739</v>
+        <v>0.001403904152117767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.507882</v>
+        <v>6.670167666666667</v>
       </c>
       <c r="H6">
-        <v>16.523646</v>
+        <v>20.010503</v>
       </c>
       <c r="I6">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="J6">
-        <v>0.03518866199235487</v>
+        <v>0.0423069620011633</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.235549333333334</v>
+        <v>3.080288333333333</v>
       </c>
       <c r="N6">
-        <v>12.706648</v>
+        <v>9.240864999999999</v>
       </c>
       <c r="O6">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="P6">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="Q6">
-        <v>23.32890593317867</v>
+        <v>20.54603964501056</v>
       </c>
       <c r="R6">
-        <v>209.960153398608</v>
+        <v>184.914356805095</v>
       </c>
       <c r="S6">
-        <v>0.006270581342524336</v>
+        <v>0.005277627086629894</v>
       </c>
       <c r="T6">
-        <v>0.006270581342524336</v>
+        <v>0.005277627086629894</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>449.9625550000001</v>
       </c>
       <c r="I7">
-        <v>0.9582376829612175</v>
+        <v>0.9513278459982415</v>
       </c>
       <c r="J7">
-        <v>0.9582376829612176</v>
+        <v>0.9513278459982416</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.048438999999999</v>
+        <v>3.867218333333334</v>
       </c>
       <c r="N7">
-        <v>12.145317</v>
+        <v>11.601655</v>
       </c>
       <c r="O7">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="P7">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="Q7">
-        <v>607.2153187338816</v>
+        <v>580.0344806698363</v>
       </c>
       <c r="R7">
-        <v>5464.937868604935</v>
+        <v>5220.310326028526</v>
       </c>
       <c r="S7">
-        <v>0.1632135282920592</v>
+        <v>0.148992493894356</v>
       </c>
       <c r="T7">
-        <v>0.1632135282920593</v>
+        <v>0.148992493894356</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>449.9625550000001</v>
       </c>
       <c r="I8">
-        <v>0.9582376829612175</v>
+        <v>0.9513278459982415</v>
       </c>
       <c r="J8">
-        <v>0.9582376829612176</v>
+        <v>0.9513278459982416</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>11.27122833333333</v>
       </c>
       <c r="N8">
-        <v>33.81368499999999</v>
+        <v>33.813685</v>
       </c>
       <c r="O8">
-        <v>0.4742054659960561</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="P8">
-        <v>0.4742054659960562</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="Q8">
-        <v>1690.543566285019</v>
+        <v>1690.54356628502</v>
       </c>
       <c r="R8">
-        <v>15214.89209656517</v>
+        <v>15214.89209656518</v>
       </c>
       <c r="S8">
-        <v>0.4544015469836052</v>
+        <v>0.4342471187005799</v>
       </c>
       <c r="T8">
-        <v>0.4544015469836053</v>
+        <v>0.4342471187005799</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>449.9625550000001</v>
       </c>
       <c r="I9">
-        <v>0.9582376829612175</v>
+        <v>0.9513278459982415</v>
       </c>
       <c r="J9">
-        <v>0.9582376829612176</v>
+        <v>0.9513278459982416</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.219226333333334</v>
+        <v>5.654344666666667</v>
       </c>
       <c r="N9">
-        <v>9.657679000000002</v>
+        <v>16.963034</v>
       </c>
       <c r="O9">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="P9">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="Q9">
-        <v>482.8437686899829</v>
+        <v>848.0811243546524</v>
       </c>
       <c r="R9">
-        <v>4345.593918209846</v>
+        <v>7632.730119191871</v>
       </c>
       <c r="S9">
-        <v>0.1297836742097491</v>
+        <v>0.2178451901625029</v>
       </c>
       <c r="T9">
-        <v>0.1297836742097491</v>
+        <v>0.2178451901625029</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>449.9625550000001</v>
       </c>
       <c r="I10">
-        <v>0.9582376829612175</v>
+        <v>0.9513278459982415</v>
       </c>
       <c r="J10">
-        <v>0.9582376829612176</v>
+        <v>0.9513278459982416</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9942166666666665</v>
+        <v>0.819389</v>
       </c>
       <c r="N10">
-        <v>2.98265</v>
+        <v>2.458167</v>
       </c>
       <c r="O10">
-        <v>0.04182889067409059</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="P10">
-        <v>0.0418288906740906</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="Q10">
-        <v>149.1200905189722</v>
+        <v>122.8981226596317</v>
       </c>
       <c r="R10">
-        <v>1342.08081467075</v>
+        <v>1106.083103936685</v>
       </c>
       <c r="S10">
-        <v>0.04008201928037865</v>
+        <v>0.03156863669354134</v>
       </c>
       <c r="T10">
-        <v>0.04008201928037865</v>
+        <v>0.03156863669354135</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>449.9625550000001</v>
       </c>
       <c r="I11">
-        <v>0.9582376829612175</v>
+        <v>0.9513278459982415</v>
       </c>
       <c r="J11">
-        <v>0.9582376829612176</v>
+        <v>0.9513278459982416</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.235549333333334</v>
+        <v>3.080288333333333</v>
       </c>
       <c r="N11">
-        <v>12.706648</v>
+        <v>9.240864999999999</v>
       </c>
       <c r="O11">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="P11">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="Q11">
-        <v>635.2795332850714</v>
+        <v>462.0048028677862</v>
       </c>
       <c r="R11">
-        <v>5717.515799565642</v>
+        <v>4158.043225810075</v>
       </c>
       <c r="S11">
-        <v>0.1707569141954252</v>
+        <v>0.1186744065472614</v>
       </c>
       <c r="T11">
-        <v>0.1707569141954252</v>
+        <v>0.1186744065472614</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.028937</v>
+        <v>1.003544</v>
       </c>
       <c r="H12">
-        <v>3.086811</v>
+        <v>3.010632</v>
       </c>
       <c r="I12">
-        <v>0.006573655046427582</v>
+        <v>0.0063651920005952</v>
       </c>
       <c r="J12">
-        <v>0.006573655046427582</v>
+        <v>0.006365192000595201</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.048438999999999</v>
+        <v>3.867218333333334</v>
       </c>
       <c r="N12">
-        <v>12.145317</v>
+        <v>11.601655</v>
       </c>
       <c r="O12">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="P12">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="Q12">
-        <v>4.165588679342999</v>
+        <v>3.880923755106667</v>
       </c>
       <c r="R12">
-        <v>37.490298114087</v>
+        <v>34.92831379596001</v>
       </c>
       <c r="S12">
-        <v>0.001119669423338437</v>
+        <v>0.000996886440646495</v>
       </c>
       <c r="T12">
-        <v>0.001119669423338437</v>
+        <v>0.0009968864406464952</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.028937</v>
+        <v>1.003544</v>
       </c>
       <c r="H13">
-        <v>3.086811</v>
+        <v>3.010632</v>
       </c>
       <c r="I13">
-        <v>0.006573655046427582</v>
+        <v>0.0063651920005952</v>
       </c>
       <c r="J13">
-        <v>0.006573655046427582</v>
+        <v>0.006365192000595201</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>11.27122833333333</v>
       </c>
       <c r="N13">
-        <v>33.81368499999999</v>
+        <v>33.813685</v>
       </c>
       <c r="O13">
-        <v>0.4742054659960561</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="P13">
-        <v>0.4742054659960562</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="Q13">
-        <v>11.597383867615</v>
+        <v>11.31117356654667</v>
       </c>
       <c r="R13">
-        <v>104.376454808535</v>
+        <v>101.80056209892</v>
       </c>
       <c r="S13">
-        <v>0.003117263154588517</v>
+        <v>0.002905482371678159</v>
       </c>
       <c r="T13">
-        <v>0.003117263154588518</v>
+        <v>0.00290548237167816</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.028937</v>
+        <v>1.003544</v>
       </c>
       <c r="H14">
-        <v>3.086811</v>
+        <v>3.010632</v>
       </c>
       <c r="I14">
-        <v>0.006573655046427582</v>
+        <v>0.0063651920005952</v>
       </c>
       <c r="J14">
-        <v>0.006573655046427582</v>
+        <v>0.006365192000595201</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.219226333333334</v>
+        <v>5.654344666666667</v>
       </c>
       <c r="N14">
-        <v>9.657679000000002</v>
+        <v>16.963034</v>
       </c>
       <c r="O14">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="P14">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="Q14">
-        <v>3.312381085741</v>
+        <v>5.674383664165333</v>
       </c>
       <c r="R14">
-        <v>29.811429771669</v>
+        <v>51.06945297748801</v>
       </c>
       <c r="S14">
-        <v>0.0008903355817487294</v>
+        <v>0.001457569509421326</v>
       </c>
       <c r="T14">
-        <v>0.0008903355817487295</v>
+        <v>0.001457569509421326</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.028937</v>
+        <v>1.003544</v>
       </c>
       <c r="H15">
-        <v>3.086811</v>
+        <v>3.010632</v>
       </c>
       <c r="I15">
-        <v>0.006573655046427582</v>
+        <v>0.0063651920005952</v>
       </c>
       <c r="J15">
-        <v>0.006573655046427582</v>
+        <v>0.006365192000595201</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9942166666666665</v>
+        <v>0.819389</v>
       </c>
       <c r="N15">
-        <v>2.98265</v>
+        <v>2.458167</v>
       </c>
       <c r="O15">
-        <v>0.04182889067409059</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="P15">
-        <v>0.0418288906740906</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="Q15">
-        <v>1.02298631435</v>
+        <v>0.8222929146160001</v>
       </c>
       <c r="R15">
-        <v>9.206876829149998</v>
+        <v>7.400636231544</v>
       </c>
       <c r="S15">
-        <v>0.0002749686982662032</v>
+        <v>0.0002112210155486155</v>
       </c>
       <c r="T15">
-        <v>0.0002749686982662033</v>
+        <v>0.0002112210155486155</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.028937</v>
+        <v>1.003544</v>
       </c>
       <c r="H16">
-        <v>3.086811</v>
+        <v>3.010632</v>
       </c>
       <c r="I16">
-        <v>0.006573655046427582</v>
+        <v>0.0063651920005952</v>
       </c>
       <c r="J16">
-        <v>0.006573655046427582</v>
+        <v>0.006365192000595201</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.235549333333334</v>
+        <v>3.080288333333333</v>
       </c>
       <c r="N16">
-        <v>12.706648</v>
+        <v>9.240864999999999</v>
       </c>
       <c r="O16">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="P16">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="Q16">
-        <v>4.358113424392001</v>
+        <v>3.091204875186667</v>
       </c>
       <c r="R16">
-        <v>39.223020819528</v>
+        <v>27.82084387668</v>
       </c>
       <c r="S16">
-        <v>0.001171418188485694</v>
+        <v>0.0007940326633006042</v>
       </c>
       <c r="T16">
-        <v>0.001171418188485694</v>
+        <v>0.0007940326633006043</v>
       </c>
     </row>
   </sheetData>
